--- a/medicine/Médecine vétérinaire/Dermite_estivale/Dermite_estivale.xlsx
+++ b/medicine/Médecine vétérinaire/Dermite_estivale/Dermite_estivale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dermite estivale est une maladie du cheval, due à une allergie aux piqûres de certains insectes. Comme son nom l'indique, elle coïncide généralement avec l'été, et touche la peau de l'animal, en créant des démangeaisons. Lorsqu'elle réapparaît d'année en année, elle est dite « récidivante ».
 </t>
@@ -511,9 +523,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dermite estivale touche un cheval islandais exporté sur deux, les culicoides n'étant pas présents en Islande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dermite estivale touche un cheval islandais exporté sur deux, les culicoides n'étant pas présents en Islande.
 </t>
         </is>
       </c>
